--- a/biology/Médecine/Claude_Le_Pen/Claude_Le_Pen.xlsx
+++ b/biology/Médecine/Claude_Le_Pen/Claude_Le_Pen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claude Le Pen, né le 17 février 1948[1] à Tananarive (Madagascar)[2] et mort le 6 avril 2020 à Paris[2], est un économiste français, spécialiste de l'économie de la santé[3]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude Le Pen, né le 17 février 1948 à Tananarive (Madagascar) et mort le 6 avril 2020 à Paris, est un économiste français, spécialiste de l'économie de la santé. 
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diplômé de HEC, titulaire d’un doctorat d’histoire et d’épistémologie de la pensée économique et d’un doctorat de sciences économiques, il est agrégé des facultés de sciences économiques[4].
-Docteur en économie (1980)[5], Claude Le Pen est professeur à l’université Paris-Dauphine  (1981-1984), où il a co-dirigé le master professionnel d’économie de la santé, avant de devenir professeur à l’université de Rennes I (1984-1988)[4].
-Au titre de professeur de sciences économiques à l'Université Paris IX-Dauphine, il est consultant pour des projets de lois concernant la santé, notamment lors d'une table ronde au Sénat en 2004[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diplômé de HEC, titulaire d’un doctorat d’histoire et d’épistémologie de la pensée économique et d’un doctorat de sciences économiques, il est agrégé des facultés de sciences économiques.
+Docteur en économie (1980), Claude Le Pen est professeur à l’université Paris-Dauphine  (1981-1984), où il a co-dirigé le master professionnel d’économie de la santé, avant de devenir professeur à l’université de Rennes I (1984-1988).
+Au titre de professeur de sciences économiques à l'Université Paris IX-Dauphine, il est consultant pour des projets de lois concernant la santé, notamment lors d'une table ronde au Sénat en 2004.
 Il a été consultant pour l'industrie pharmaceutique. 
-Claude Le Pen meurt à Paris le 6 avril 2020 à l’âge de 72 ans des suites d'un cancer[7],[8].
+Claude Le Pen meurt à Paris le 6 avril 2020 à l’âge de 72 ans des suites d'un cancer,.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Ouvrage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Où va le système de santé français ?, avec André Grimaldi, Prométhée, coll. Pour ou contre ?, Bordeaux, 2010  (ISBN 978-2-916623-07-8)</t>
         </is>
